--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_007/frequency_features.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_007/frequency_features.xlsx
@@ -535,37 +535,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33.21654850683567</v>
+        <v>57.89637930365671</v>
       </c>
       <c r="C2" t="n">
-        <v>54.05588276815346</v>
+        <v>97.10055355373517</v>
       </c>
       <c r="D2" t="n">
-        <v>6.142468338368836e-08</v>
+        <v>5.61027204636259e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>3.361847299494685e-05</v>
+        <v>0.0001405772127716847</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4678387113638827</v>
+        <v>-0.546192257581667</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1370481410199808</v>
+        <v>0.1944788676088957</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.2478391336286939</v>
+        <v>-0.0380283490301713</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.7221584046532077</v>
+        <v>-0.8914369202214619</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -581,16 +581,16 @@
         <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q2" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R2" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S2" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -598,37 +598,37 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>86.04308305569522</v>
+        <v>134.2220734948008</v>
       </c>
       <c r="C3" t="n">
-        <v>98.98775175502749</v>
+        <v>215.7134979059426</v>
       </c>
       <c r="D3" t="n">
-        <v>3.573673113269621e-08</v>
+        <v>7.792176626491298e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>5.480563846270695e-05</v>
+        <v>0.0004025881693841836</v>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.211874409235143</v>
+        <v>1.266245976366046</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09621849389677493</v>
+        <v>0.326927932493301</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.047920899301038</v>
+        <v>2.097561701577785</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.454280984379956</v>
+        <v>0.7612399434220527</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -644,16 +644,16 @@
         <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q3" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R3" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S3" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -661,37 +661,37 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>35.92506390952818</v>
+        <v>45.53611128068669</v>
       </c>
       <c r="C4" t="n">
-        <v>73.03399021648605</v>
+        <v>104.2464292197665</v>
       </c>
       <c r="D4" t="n">
-        <v>1.132317421767673e-06</v>
+        <v>2.503667619006602e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001032371088739086</v>
+        <v>0.0004950789848511815</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5059868156271572</v>
+        <v>-0.4295859554781762</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1832059450852069</v>
+        <v>0.2717052023631272</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1587137057060944</v>
+        <v>0.2365785732909884</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.9580886102731855</v>
+        <v>-0.8647511296037427</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -707,16 +707,16 @@
         <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q4" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R4" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S4" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
@@ -724,37 +724,37 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>31.39470068244982</v>
+        <v>61.60272719821506</v>
       </c>
       <c r="C5" t="n">
-        <v>79.13149601270501</v>
+        <v>164.7019895432786</v>
       </c>
       <c r="D5" t="n">
-        <v>2.741386127284775e-06</v>
+        <v>1.225230537053599e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001862744533239909</v>
+        <v>0.003877706798876427</v>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4421788828514059</v>
+        <v>-0.5811578037567457</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3366360491250389</v>
+        <v>0.5643609648863994</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1959578501700321</v>
+        <v>0.7952414385578088</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.9517333032234878</v>
+        <v>-1.391246686251461</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -770,54 +770,54 @@
         <v>7</v>
       </c>
       <c r="P5" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q5" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R5" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S5" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B6" t="n">
-        <v>55.95851450679316</v>
+        <v>18.10741753128604</v>
       </c>
       <c r="C6" t="n">
-        <v>79.93163048926748</v>
+        <v>111.9140187447235</v>
       </c>
       <c r="D6" t="n">
-        <v>3.654460873379866e-07</v>
+        <v>5.199886631008831e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001208477152353306</v>
+        <v>9.811916691941442e-05</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.788148091644974</v>
+        <v>-0.125300620680751</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2346348955955837</v>
+        <v>0.3441170245897895</v>
       </c>
       <c r="K6" t="n">
-        <v>1.299680319160524</v>
+        <v>0.8445952652809494</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4262935751367883</v>
+        <v>-0.4476152900705611</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         <v>7</v>
       </c>
       <c r="P6" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q6" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R6" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S6" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
@@ -850,37 +850,37 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>16.35651692273962</v>
+        <v>36.5628967860135</v>
       </c>
       <c r="C7" t="n">
-        <v>40.73469475042061</v>
+        <v>75.22527200527578</v>
       </c>
       <c r="D7" t="n">
-        <v>1.214949665825065e-07</v>
+        <v>2.249258505254336e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>5.188097563877048e-05</v>
+        <v>6.117642443133933e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2303734777850651</v>
+        <v>-0.3449329885472972</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1286077099336416</v>
+        <v>0.1857807298942889</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04402601960504387</v>
+        <v>0.03628160214062712</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.4759411391997836</v>
+        <v>-0.7428679018175891</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -896,16 +896,16 @@
         <v>7</v>
       </c>
       <c r="P7" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q7" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R7" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S7" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -913,37 +913,37 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>65.61529368802709</v>
+        <v>76.59502931730535</v>
       </c>
       <c r="C8" t="n">
-        <v>78.68854560157064</v>
+        <v>113.102004916744</v>
       </c>
       <c r="D8" t="n">
-        <v>1.358572359132435e-07</v>
+        <v>1.203727280364839e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>7.350250559300351e-05</v>
+        <v>3.771511378977955e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9241590660285508</v>
+        <v>-0.7225946162009939</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1132919587797701</v>
+        <v>0.1273368852037695</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.6631698239647397</v>
+        <v>-0.3809731878842472</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.100333272503558</v>
+        <v>-0.8623847452750167</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -959,16 +959,16 @@
         <v>7</v>
       </c>
       <c r="P8" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q8" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R8" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S8" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -976,37 +976,37 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>29.88556916880569</v>
+        <v>72.23719871579824</v>
       </c>
       <c r="C9" t="n">
-        <v>52.06329857516915</v>
+        <v>193.3400622644492</v>
       </c>
       <c r="D9" t="n">
-        <v>5.099462036257465e-07</v>
+        <v>2.591713073457797e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>5.551202800502886e-05</v>
+        <v>4.766616686320664e-05</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4209235094197984</v>
+        <v>0.6814830067528137</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1613532579199609</v>
+        <v>0.5612609929682002</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.003134321572912621</v>
+        <v>1.586463090476104</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.7644225266218928</v>
+        <v>-0.3843846288514944</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1022,16 +1022,16 @@
         <v>7</v>
       </c>
       <c r="P9" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q9" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R9" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S9" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1039,37 +1039,37 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>60.59497105588812</v>
+        <v>100.1265444730915</v>
       </c>
       <c r="C10" t="n">
-        <v>76.45782795137993</v>
+        <v>142.9153191456832</v>
       </c>
       <c r="D10" t="n">
-        <v>1.149121571653795e-07</v>
+        <v>1.796966165592524e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>6.379917142087916e-05</v>
+        <v>0.0001118165869712473</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8534502965618045</v>
+        <v>-0.9445900421989764</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1053177748483465</v>
+        <v>0.1574130834871419</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.6780462809725518</v>
+        <v>-0.4873431634678523</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.085817919044649</v>
+        <v>-1.203937048709844</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1085,16 +1085,16 @@
         <v>7</v>
       </c>
       <c r="P10" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q10" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R10" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S10" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1102,37 +1102,37 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>113.0679133143098</v>
+        <v>82.50409346748935</v>
       </c>
       <c r="C11" t="n">
-        <v>139.3179138220131</v>
+        <v>251.1068975264874</v>
       </c>
       <c r="D11" t="n">
-        <v>3.351971409717524e-07</v>
+        <v>1.110699436105626e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>3.408692892635191e-05</v>
+        <v>0.0003128608698175247</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.592505821328307</v>
+        <v>0.7783405044102769</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1687172749459206</v>
+        <v>0.599767635196463</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.157628419945407</v>
+        <v>1.793001700398905</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.936818736174224</v>
+        <v>-0.942078193433475</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1148,54 +1148,54 @@
         <v>7</v>
       </c>
       <c r="P11" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q11" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R11" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S11" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>0.3773584905660377</v>
       </c>
       <c r="B12" t="n">
-        <v>11.27205400185431</v>
+        <v>19.01540609672534</v>
       </c>
       <c r="C12" t="n">
-        <v>54.6161104761841</v>
+        <v>130.9342557631439</v>
       </c>
       <c r="D12" t="n">
-        <v>4.67261037712701e-07</v>
+        <v>3.292920529320267e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0009186822681742041</v>
+        <v>0.001297298658624131</v>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.158761323969779</v>
+        <v>0.1654059925046312</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2690064816668448</v>
+        <v>0.510255566208521</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4985177717006777</v>
+        <v>1.412553320332482</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.57359202014648</v>
+        <v>-0.6861717311924641</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1211,16 +1211,16 @@
         <v>7</v>
       </c>
       <c r="P12" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q12" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R12" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S12" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -1228,37 +1228,37 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>173.1511377942893</v>
+        <v>223.3789157638142</v>
       </c>
       <c r="C13" t="n">
-        <v>202.9056214592555</v>
+        <v>369.253065142026</v>
       </c>
       <c r="D13" t="n">
-        <v>3.535679918832626e-07</v>
+        <v>2.134139912581565e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>7.794000537948378e-05</v>
+        <v>4.760932646871677e-05</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.438748419637877</v>
+        <v>2.107348261922775</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2162542012879806</v>
+        <v>0.6935259050302727</v>
       </c>
       <c r="K13" t="n">
-        <v>2.896068688155756</v>
+        <v>3.223442819531745</v>
       </c>
       <c r="L13" t="n">
-        <v>2.076582420231885</v>
+        <v>1.072778197897178</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1274,16 +1274,16 @@
         <v>7</v>
       </c>
       <c r="P13" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q13" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R13" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S13" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -1291,37 +1291,37 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>149.1571831052452</v>
+        <v>166.428110455041</v>
       </c>
       <c r="C14" t="n">
-        <v>200.2034590032581</v>
+        <v>326.7979088495132</v>
       </c>
       <c r="D14" t="n">
-        <v>1.298592849697249e-07</v>
+        <v>9.968482360384718e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001141033977105737</v>
+        <v>0.000304755050840491</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.100805395848523</v>
+        <v>1.570076513726801</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4126676301330309</v>
+        <v>0.8259484567253739</v>
       </c>
       <c r="K14" t="n">
-        <v>3.066735644809744</v>
+        <v>3.152393995736928</v>
       </c>
       <c r="L14" t="n">
-        <v>1.581966799584604</v>
+        <v>0.4345526511037746</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1337,16 +1337,16 @@
         <v>7</v>
       </c>
       <c r="P14" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q14" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R14" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S14" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1354,37 +1354,37 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>16.08816101157713</v>
+        <v>167.2442464905133</v>
       </c>
       <c r="C15" t="n">
-        <v>46.20168197258094</v>
+        <v>371.0514254122139</v>
       </c>
       <c r="D15" t="n">
-        <v>1.102470699210117e-07</v>
+        <v>3.567541284091106e-08</v>
       </c>
       <c r="E15" t="n">
-        <v>2.764542836585028e-05</v>
+        <v>0.0001139626227846036</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
         <v>0.6</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2265938170644666</v>
+        <v>1.577775910287861</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1829350760788483</v>
+        <v>0.7349325796554319</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06023762753050812</v>
+        <v>3.078648735711701</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.5529992522565351</v>
+        <v>-0.5811930018013299</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1400,16 +1400,16 @@
         <v>7</v>
       </c>
       <c r="P15" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q15" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R15" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S15" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
@@ -1417,37 +1417,37 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>34.98000454702314</v>
+        <v>45.60759093023896</v>
       </c>
       <c r="C16" t="n">
-        <v>67.91310378265018</v>
+        <v>113.8707518165432</v>
       </c>
       <c r="D16" t="n">
-        <v>6.891177809497539e-08</v>
+        <v>1.415936870906599e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>2.025928857835749e-05</v>
+        <v>2.610596485959857e-05</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4926761203806077</v>
+        <v>-0.430260291794707</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1973672810876075</v>
+        <v>0.3138302680404633</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007668948800345361</v>
+        <v>-0.04547385794822616</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.7279993651975416</v>
+        <v>-1.064880358097942</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1463,16 +1463,16 @@
         <v>7</v>
       </c>
       <c r="P16" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q16" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R16" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S16" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1480,37 +1480,37 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>29.69672783169</v>
+        <v>55.90094714029459</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89506405832527</v>
+        <v>76.22953948444291</v>
       </c>
       <c r="D17" t="n">
-        <v>5.96332982519641e-08</v>
+        <v>1.105151559339242e-08</v>
       </c>
       <c r="E17" t="n">
-        <v>1.084793060915154e-05</v>
+        <v>1.744891689700741e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.418263772277324</v>
+        <v>-0.5273674258518357</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1045113177463431</v>
+        <v>0.08196969497370159</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.218106781013298</v>
+        <v>-0.3867563128629573</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.6175725400002322</v>
+        <v>-0.6612639447167737</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1526,16 +1526,16 @@
         <v>7</v>
       </c>
       <c r="P17" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q17" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R17" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S17" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -1543,37 +1543,37 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>131.9751415846426</v>
+        <v>92.82513016385977</v>
       </c>
       <c r="C18" t="n">
-        <v>151.8890304188575</v>
+        <v>240.7548296904216</v>
       </c>
       <c r="D18" t="n">
-        <v>1.38538492099297e-08</v>
+        <v>3.574888991750853e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>3.065363867511082e-05</v>
+        <v>0.0009093332618171405</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.858804811051305</v>
+        <v>0.8757087751307525</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1931590549027427</v>
+        <v>0.6701639036004973</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.511465277725746</v>
+        <v>1.965996449183155</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.130798501250309</v>
+        <v>-0.6875110759168613</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1589,16 +1589,16 @@
         <v>7</v>
       </c>
       <c r="P18" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q18" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R18" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S18" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -1606,37 +1606,37 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>68.35989859445162</v>
+        <v>78.5596123049483</v>
       </c>
       <c r="C19" t="n">
-        <v>87.25369175031054</v>
+        <v>107.3182103661278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.921029697785804e-07</v>
+        <v>2.938374515333213e-08</v>
       </c>
       <c r="E19" t="n">
-        <v>8.40043194921128e-05</v>
+        <v>5.638825990587004e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9628154731612905</v>
+        <v>-0.7411284179712105</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1025799923060821</v>
+        <v>0.1201232330403228</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.6055155484337995</v>
+        <v>-0.4638376261763667</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.116514374843479</v>
+        <v>-0.9440973662509297</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1652,16 +1652,16 @@
         <v>7</v>
       </c>
       <c r="P19" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q19" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R19" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S19" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1669,37 +1669,37 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>41.59916746437345</v>
+        <v>99.87128116927761</v>
       </c>
       <c r="C20" t="n">
-        <v>54.74115207335488</v>
+        <v>126.288165071337</v>
       </c>
       <c r="D20" t="n">
-        <v>1.057584906346768e-07</v>
+        <v>1.564864189430011e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>2.769942170580046e-05</v>
+        <v>7.894108073114669e-05</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.5859037671038515</v>
+        <v>-0.9421818978233737</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07721370489210269</v>
+        <v>0.1240012252948642</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.4181132832205744</v>
+        <v>-0.7064540981327783</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.7897321546782605</v>
+        <v>-1.140074457629656</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1715,16 +1715,16 @@
         <v>7</v>
       </c>
       <c r="P20" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q20" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R20" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S20" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -1732,37 +1732,37 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>29.96976653482119</v>
+        <v>60.38736658740598</v>
       </c>
       <c r="C21" t="n">
-        <v>48.27108869295681</v>
+        <v>99.94040842993914</v>
       </c>
       <c r="D21" t="n">
-        <v>1.854912355075994e-07</v>
+        <v>7.553692782215988e-07</v>
       </c>
       <c r="E21" t="n">
-        <v>7.53460150750784e-05</v>
+        <v>0.0001718445658469581</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.422109387814383</v>
+        <v>-0.5696921376170376</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1296639247996532</v>
+        <v>0.162950870819197</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1141623572533527</v>
+        <v>-0.2574493308173295</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.6900277242327255</v>
+        <v>-0.9504015959609063</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1778,16 +1778,16 @@
         <v>7</v>
       </c>
       <c r="P21" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q21" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R21" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S21" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -1795,37 +1795,37 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>64.32899679057817</v>
+        <v>85.09275371463102</v>
       </c>
       <c r="C22" t="n">
-        <v>76.21712167969592</v>
+        <v>114.8876701813618</v>
       </c>
       <c r="D22" t="n">
-        <v>8.73177014190404e-08</v>
+        <v>1.873799853848258e-07</v>
       </c>
       <c r="E22" t="n">
-        <v>1.950412159279364e-05</v>
+        <v>2.82916383426906e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.9060422083180024</v>
+        <v>-0.8027618274965189</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07726465984705107</v>
+        <v>0.1199851745898155</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.7413829140948605</v>
+        <v>-0.6073882335449767</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.030354827665157</v>
+        <v>-1.0591179162993</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1841,16 +1841,16 @@
         <v>7</v>
       </c>
       <c r="P22" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q22" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R22" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S22" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1858,37 +1858,37 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>38.2246894081829</v>
+        <v>35.81220138460152</v>
       </c>
       <c r="C23" t="n">
-        <v>133.6935470251038</v>
+        <v>131.6248409235556</v>
       </c>
       <c r="D23" t="n">
-        <v>2.845300023719597e-06</v>
+        <v>1.564629453408383e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0002815270746015757</v>
+        <v>0.0001401916764375852</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5383759071575055</v>
+        <v>0.3378509564585049</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8279084798609108</v>
+        <v>0.4309899430413631</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9323357183524364</v>
+        <v>1.321525986619083</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.685773148704373</v>
+        <v>-0.4774705399562904</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1904,16 +1904,16 @@
         <v>7</v>
       </c>
       <c r="P23" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q23" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R23" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S23" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1921,37 +1921,37 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>25.25774253537462</v>
+        <v>51.53604302149783</v>
       </c>
       <c r="C24" t="n">
-        <v>50.88142059421901</v>
+        <v>130.0605252497827</v>
       </c>
       <c r="D24" t="n">
-        <v>1.907044626561165e-06</v>
+        <v>3.406058322407714e-07</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0001996548007267238</v>
+        <v>0.0001873560053849029</v>
       </c>
       <c r="F24" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3557428526109102</v>
+        <v>-0.4861890851084701</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1512304509039223</v>
+        <v>0.3034940328819983</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6657361797176099</v>
+        <v>0.4358917003761892</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.08775034448528264</v>
+        <v>-0.9181934526450835</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1967,54 +1967,54 @@
         <v>7</v>
       </c>
       <c r="P24" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q24" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R24" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S24" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B25" t="n">
-        <v>32.38868010123467</v>
+        <v>55.85494004331242</v>
       </c>
       <c r="C25" t="n">
-        <v>54.8040345935252</v>
+        <v>223.3602677014769</v>
       </c>
       <c r="D25" t="n">
-        <v>5.763681987701026e-08</v>
+        <v>2.587771153599084e-07</v>
       </c>
       <c r="E25" t="n">
-        <v>7.16512385098636e-06</v>
+        <v>4.720817617186302e-05</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.4561785929751363</v>
+        <v>0.4336138490696128</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1326533569641453</v>
+        <v>0.9090632061014773</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.1804308577727356</v>
+        <v>1.696787829598079</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.7097474960752926</v>
+        <v>-0.9923655297125958</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2030,54 +2030,54 @@
         <v>7</v>
       </c>
       <c r="P25" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q25" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R25" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S25" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B26" t="n">
-        <v>26.7888638654832</v>
+        <v>31.40025229880836</v>
       </c>
       <c r="C26" t="n">
-        <v>52.6059807002769</v>
+        <v>114.8198180808538</v>
       </c>
       <c r="D26" t="n">
-        <v>5.728703306327079e-07</v>
+        <v>2.112105082185889e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0002871749670945115</v>
+        <v>0.0003380386334598784</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.3773079417673691</v>
+        <v>-0.1009283353076603</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2027192774877902</v>
+        <v>0.5418504052716845</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1333483077972238</v>
+        <v>1.352083896984154</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.650467411697813</v>
+        <v>-0.7826398943953183</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2093,54 +2093,54 @@
         <v>7</v>
       </c>
       <c r="P26" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q26" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R26" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S26" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B27" t="n">
-        <v>134.1060488814785</v>
+        <v>19.85020373377348</v>
       </c>
       <c r="C27" t="n">
-        <v>205.5213440203253</v>
+        <v>111.2781258216975</v>
       </c>
       <c r="D27" t="n">
-        <v>3.283903224453178e-07</v>
+        <v>2.145689740971818e-07</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0001139824569443825</v>
+        <v>7.49128546725285e-05</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.888817589879979</v>
+        <v>-0.04986570000382057</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4048518091977253</v>
+        <v>0.3696074088844921</v>
       </c>
       <c r="K27" t="n">
-        <v>2.479140704544952</v>
+        <v>0.8944465103687779</v>
       </c>
       <c r="L27" t="n">
-        <v>0.956515934903727</v>
+        <v>-0.46548140295806</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2156,54 +2156,54 @@
         <v>7</v>
       </c>
       <c r="P27" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q27" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R27" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S27" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1408450704225352</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B28" t="n">
-        <v>8.095546523356232</v>
+        <v>59.18166176467421</v>
       </c>
       <c r="C28" t="n">
-        <v>36.2404471168633</v>
+        <v>176.5739826996654</v>
       </c>
       <c r="D28" t="n">
-        <v>1.322501985419769e-07</v>
+        <v>5.686595888874896e-07</v>
       </c>
       <c r="E28" t="n">
-        <v>5.778786451256664e-05</v>
+        <v>0.0002363241569822939</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07616035789112381</v>
+        <v>-0.1553431596536553</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2059069347188144</v>
+        <v>0.8928961791346767</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4599545069176262</v>
+        <v>1.491197666616829</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.5659850524472706</v>
+        <v>-1.096994010792429</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2219,16 +2219,16 @@
         <v>7</v>
       </c>
       <c r="P28" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q28" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R28" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S28" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -2236,37 +2236,37 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>39.10149165118881</v>
+        <v>52.48585313068214</v>
       </c>
       <c r="C29" t="n">
-        <v>62.85024324499878</v>
+        <v>102.3615569251903</v>
       </c>
       <c r="D29" t="n">
-        <v>2.915121171107661e-07</v>
+        <v>3.137981049469081e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0001901144334458427</v>
+        <v>0.0003470088011287469</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.550725234523786</v>
+        <v>-0.4951495578366239</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1672642932968037</v>
+        <v>0.2170458303389249</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.2739758812199148</v>
+        <v>0.02562386066584141</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.8703233742202886</v>
+        <v>-0.918335197283663</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         <v>7</v>
       </c>
       <c r="P29" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q29" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R29" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S29" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -2299,37 +2299,37 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>35.79214163822552</v>
+        <v>44.19180539964486</v>
       </c>
       <c r="C30" t="n">
-        <v>64.82838203126455</v>
+        <v>107.7459316653395</v>
       </c>
       <c r="D30" t="n">
-        <v>3.33316868306791e-07</v>
+        <v>8.855804610307357e-08</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0001165427050265519</v>
+        <v>0.0002230695283280056</v>
       </c>
       <c r="F30" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5041146709609228</v>
+        <v>-0.4169038245249516</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1807466334426403</v>
+        <v>0.1929230297075287</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9573182915560704</v>
+        <v>0.05161020796670846</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1657596838875867</v>
+        <v>-0.7530442779426322</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2345,54 +2345,54 @@
         <v>7</v>
       </c>
       <c r="P30" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q30" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R30" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S30" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B31" t="n">
-        <v>146.6785613046014</v>
+        <v>41.11596346898456</v>
       </c>
       <c r="C31" t="n">
-        <v>196.8888632118731</v>
+        <v>218.3221492161055</v>
       </c>
       <c r="D31" t="n">
-        <v>1.530828830450214e-06</v>
+        <v>2.597006353500712e-07</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000383590732654359</v>
+        <v>0.000125518579233727</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.065895229642273</v>
+        <v>0.2540951651131357</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2701967702980828</v>
+        <v>0.7082727309763922</v>
       </c>
       <c r="K31" t="n">
-        <v>2.489598208985454</v>
+        <v>1.88408771394981</v>
       </c>
       <c r="L31" t="n">
-        <v>1.481778937812237</v>
+        <v>-0.6400197887199671</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2408,16 +2408,16 @@
         <v>7</v>
       </c>
       <c r="P31" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q31" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R31" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S31" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
@@ -2425,37 +2425,37 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>273.683978327085</v>
+        <v>29.7110198176068</v>
       </c>
       <c r="C32" t="n">
-        <v>379.2357228118058</v>
+        <v>115.7342233456939</v>
       </c>
       <c r="D32" t="n">
-        <v>7.653160410004444e-06</v>
+        <v>5.614171743168087e-07</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001183062144113734</v>
+        <v>0.0002782140552575836</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3.854703920099788</v>
+        <v>0.2802926397887434</v>
       </c>
       <c r="J32" t="n">
-        <v>0.993052292512984</v>
+        <v>0.4188120814834506</v>
       </c>
       <c r="K32" t="n">
-        <v>5.60484504587697</v>
+        <v>1.314344324126115</v>
       </c>
       <c r="L32" t="n">
-        <v>2.506502401418479</v>
+        <v>-0.3393509112344776</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2471,16 +2471,16 @@
         <v>7</v>
       </c>
       <c r="P32" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q32" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R32" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S32" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -2488,37 +2488,37 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>11.28325902843256</v>
+        <v>64.5144408127351</v>
       </c>
       <c r="C33" t="n">
-        <v>67.13692977634781</v>
+        <v>112.5445019367444</v>
       </c>
       <c r="D33" t="n">
-        <v>3.545628229725228e-07</v>
+        <v>1.530593665048197e-07</v>
       </c>
       <c r="E33" t="n">
-        <v>0.000207137737355601</v>
+        <v>0.0001295156203639359</v>
       </c>
       <c r="F33" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1589191412455291</v>
+        <v>-0.6086268001201424</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3087161355384124</v>
+        <v>0.2297813515942455</v>
       </c>
       <c r="K33" t="n">
-        <v>0.786460319944834</v>
+        <v>-0.09106005741514916</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3489431211625131</v>
+        <v>-0.9951772136797316</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2534,54 +2534,54 @@
         <v>7</v>
       </c>
       <c r="P33" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q33" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R33" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S33" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1408450704225352</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>7.20793432539354</v>
+        <v>56.13654636850599</v>
       </c>
       <c r="C34" t="n">
-        <v>33.89870609414438</v>
+        <v>95.43460248245515</v>
       </c>
       <c r="D34" t="n">
-        <v>6.627418297927333e-08</v>
+        <v>4.958009572006403e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>6.519049165956268e-05</v>
+        <v>0.0001961137877103678</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.05582108371431441</v>
+        <v>-0.5295900600802451</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1832168340751218</v>
+        <v>0.141613347854707</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3285624366732616</v>
+        <v>-0.174889984918558</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.3504013669310328</v>
+        <v>-0.7937659343109092</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2597,16 +2597,16 @@
         <v>7</v>
       </c>
       <c r="P34" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q34" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R34" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S34" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -2614,37 +2614,37 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>7.984039002157381</v>
+        <v>69.74927962092777</v>
       </c>
       <c r="C35" t="n">
-        <v>39.17623443418989</v>
+        <v>107.2457258613679</v>
       </c>
       <c r="D35" t="n">
-        <v>4.689066575049353e-07</v>
+        <v>6.500176235673633e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>8.64624392169825e-05</v>
+        <v>8.518623261338815e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0.7</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1124512535515125</v>
+        <v>-0.658012071895545</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2040646702297595</v>
+        <v>0.1803669882531393</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5801643207856253</v>
+        <v>-0.221421166865208</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.1780075989335498</v>
+        <v>-0.9681719447894716</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2660,16 +2660,16 @@
         <v>7</v>
       </c>
       <c r="P35" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q35" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R35" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S35" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -2677,37 +2677,37 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>71.86369443923208</v>
+        <v>29.76573560831704</v>
       </c>
       <c r="C36" t="n">
-        <v>108.0464052150481</v>
+        <v>92.73561120965762</v>
       </c>
       <c r="D36" t="n">
-        <v>9.026576097083353e-07</v>
+        <v>5.882316695035081e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0001457514095938663</v>
+        <v>8.596150320989607e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.012164710411719</v>
+        <v>-0.2808088264935569</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2101523620082174</v>
+        <v>0.2194103462562281</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.6585208068302167</v>
+        <v>0.185753738044733</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.432941085340781</v>
+        <v>-0.6049994795382654</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2723,16 +2723,16 @@
         <v>7</v>
       </c>
       <c r="P36" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q36" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R36" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S36" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -2740,37 +2740,37 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>195.0622015555531</v>
+        <v>127.41573057948</v>
       </c>
       <c r="C37" t="n">
-        <v>257.1896837987167</v>
+        <v>247.9512376491478</v>
       </c>
       <c r="D37" t="n">
-        <v>2.490565943311541e-07</v>
+        <v>1.331847484273853e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0001075489310848855</v>
+        <v>0.0003739337815823052</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.747354951486664</v>
+        <v>1.202035194146038</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4471207730658144</v>
+        <v>0.4182894367551879</v>
       </c>
       <c r="K37" t="n">
-        <v>3.687707807244852</v>
+        <v>2.623495198896412</v>
       </c>
       <c r="L37" t="n">
-        <v>2.053287167196821</v>
+        <v>0.6863415499032686</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2786,16 +2786,16 @@
         <v>7</v>
       </c>
       <c r="P37" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q37" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R37" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S37" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -2803,37 +2803,37 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>63.40291034069406</v>
+        <v>57.79950849779652</v>
       </c>
       <c r="C38" t="n">
-        <v>76.86304701259581</v>
+        <v>115.6944924073026</v>
       </c>
       <c r="D38" t="n">
-        <v>4.352126994963349e-07</v>
+        <v>1.126860473875634e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001839819006727244</v>
+        <v>0.0001335550401110605</v>
       </c>
       <c r="F38" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.8929987371928745</v>
+        <v>-0.5452783820546842</v>
       </c>
       <c r="J38" t="n">
-        <v>0.08077060869472531</v>
+        <v>0.286079177204443</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.7286358201820143</v>
+        <v>0.1098409202031303</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.030423763033296</v>
+        <v>-0.8868608635930822</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2849,54 +2849,54 @@
         <v>7</v>
       </c>
       <c r="P38" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q38" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R38" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S38" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1408450704225352</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>17.76935584428561</v>
+        <v>76.75867658896811</v>
       </c>
       <c r="C39" t="n">
-        <v>86.80289036786202</v>
+        <v>179.8815638778698</v>
       </c>
       <c r="D39" t="n">
-        <v>2.193550932376462e-06</v>
+        <v>3.999798429114848e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0003351420126409724</v>
+        <v>0.0006489544406642797</v>
       </c>
       <c r="F39" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.196274230311206</v>
+        <v>0.7241384583864915</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4968646947615343</v>
+        <v>0.4404998224199447</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5779099865134607</v>
+        <v>1.916571745947914</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.360214110409651</v>
+        <v>-0.1208232700017087</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2912,16 +2912,16 @@
         <v>7</v>
       </c>
       <c r="P39" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q39" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R39" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S39" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -2929,37 +2929,37 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>147.5353064850108</v>
+        <v>199.9069628926834</v>
       </c>
       <c r="C40" t="n">
-        <v>188.6068485655019</v>
+        <v>327.5113879067459</v>
       </c>
       <c r="D40" t="n">
-        <v>1.442122449438763e-06</v>
+        <v>1.696955820402021e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003518684219887991</v>
+        <v>0.0003404308515648396</v>
       </c>
       <c r="F40" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.077962063169165</v>
+        <v>1.885914744270598</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3618881114318874</v>
+        <v>0.6351987520603711</v>
       </c>
       <c r="K40" t="n">
-        <v>2.576245605935601</v>
+        <v>3.265851210747029</v>
       </c>
       <c r="L40" t="n">
-        <v>1.348053258477831</v>
+        <v>0.6118866656725637</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2975,54 +2975,54 @@
         <v>7</v>
       </c>
       <c r="P40" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q40" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R40" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S40" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B41" t="n">
-        <v>106.0352155269162</v>
+        <v>19.95458946173211</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3618818412157</v>
+        <v>153.7294578600637</v>
       </c>
       <c r="D41" t="n">
-        <v>1.144528326080966e-06</v>
+        <v>8.16174097092302e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0002085430747482451</v>
+        <v>0.0002623567221258474</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.49345373981572</v>
+        <v>-0.1236967531578317</v>
       </c>
       <c r="J41" t="n">
-        <v>0.263725455664634</v>
+        <v>0.4746416876382926</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.125405806961768</v>
+        <v>0.523053413171006</v>
       </c>
       <c r="L41" t="n">
-        <v>-2.111010157138413</v>
+        <v>-1.326996766624064</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3038,16 +3038,16 @@
         <v>7</v>
       </c>
       <c r="P41" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q41" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R41" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S41" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -3055,16 +3055,16 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>45.76285524419974</v>
+        <v>29.1971653737616</v>
       </c>
       <c r="C42" t="n">
-        <v>67.1547479025982</v>
+        <v>73.11561271710757</v>
       </c>
       <c r="D42" t="n">
-        <v>1.522977282962168e-06</v>
+        <v>4.806212006998277e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0001958770409060599</v>
+        <v>0.0002894949153602238</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.6445472569605599</v>
+        <v>-0.2754449563562415</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1406478760825886</v>
+        <v>0.1887756645892446</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.3676282231361386</v>
+        <v>0.09356640436792084</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.9664975805282799</v>
+        <v>-0.650807182754692</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3101,16 +3101,16 @@
         <v>7</v>
       </c>
       <c r="P42" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q42" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R42" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S42" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -3118,37 +3118,37 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>101.4475843041377</v>
+        <v>75.24721382622859</v>
       </c>
       <c r="C43" t="n">
-        <v>133.5121075933568</v>
+        <v>219.4418638594053</v>
       </c>
       <c r="D43" t="n">
-        <v>8.017331377172998e-07</v>
+        <v>1.392540149018162e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.000119008333147921</v>
+        <v>0.0003221982068371994</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.428839215551235</v>
+        <v>-0.7098793757191376</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2050001802851286</v>
+        <v>0.5257392167066344</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.021130419878968</v>
+        <v>0.7827766364681633</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.798803620762602</v>
+        <v>-1.422191093724894</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3164,54 +3164,54 @@
         <v>7</v>
       </c>
       <c r="P43" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q43" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R43" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S43" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B44" t="n">
-        <v>55.24531602136151</v>
+        <v>107.2103443964423</v>
       </c>
       <c r="C44" t="n">
-        <v>78.60956149758486</v>
+        <v>417.0964501863664</v>
       </c>
       <c r="D44" t="n">
-        <v>9.918910001730145e-07</v>
+        <v>4.804527338544419e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>7.457260893832312e-05</v>
+        <v>0.0006408211291869904</v>
       </c>
       <c r="F44" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.7781030425543876</v>
+        <v>0.9835299013928667</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1396885457531831</v>
+        <v>1.596573835072234</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.483730781996018</v>
+        <v>4.001301792535731</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.082779101736121</v>
+        <v>-0.6955274092263173</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3227,16 +3227,16 @@
         <v>7</v>
       </c>
       <c r="P44" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q44" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R44" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S44" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -3244,37 +3244,37 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>42.30472701919238</v>
+        <v>36.31608882768759</v>
       </c>
       <c r="C45" t="n">
-        <v>58.81139289653353</v>
+        <v>69.41272103350096</v>
       </c>
       <c r="D45" t="n">
-        <v>5.307612660452423e-07</v>
+        <v>1.099715298018495e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>9.618258163305899e-05</v>
+        <v>0.0002472847976357408</v>
       </c>
       <c r="F45" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.5958412256224278</v>
+        <v>-0.3426046115819583</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1142547535704252</v>
+        <v>0.1096368822795659</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.4002131545103219</v>
+        <v>-0.02833997309880331</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.8052626590336726</v>
+        <v>-0.5650287938409884</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3290,54 +3290,54 @@
         <v>7</v>
       </c>
       <c r="P45" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q45" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R45" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S45" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B46" t="n">
-        <v>68.9640609298513</v>
+        <v>51.77144703724279</v>
       </c>
       <c r="C46" t="n">
-        <v>84.40277166562559</v>
+        <v>315.9296794752297</v>
       </c>
       <c r="D46" t="n">
-        <v>2.992951441477677e-07</v>
+        <v>1.411946241746981e-06</v>
       </c>
       <c r="E46" t="n">
-        <v>6.30224222767853e-05</v>
+        <v>0.0005748233444577561</v>
       </c>
       <c r="F46" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.9713248018288914</v>
+        <v>0.260678829917697</v>
       </c>
       <c r="J46" t="n">
-        <v>0.09863423738155343</v>
+        <v>1.039206101272273</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.7352619112648096</v>
+        <v>2.402898378571275</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.159068512682509</v>
+        <v>-1.085725407118416</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3353,54 +3353,54 @@
         <v>7</v>
       </c>
       <c r="P46" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q46" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R46" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S46" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1408450704225352</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>13.38305047879602</v>
+        <v>124.2985250602197</v>
       </c>
       <c r="C47" t="n">
-        <v>96.52778303648816</v>
+        <v>247.9754348535029</v>
       </c>
       <c r="D47" t="n">
-        <v>3.921581855965349e-07</v>
+        <v>1.358331201227171e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0002345226253948628</v>
+        <v>0.0006428922816703647</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1795916148465461</v>
+        <v>1.172627594907733</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4265857850306156</v>
+        <v>0.5272661798002384</v>
       </c>
       <c r="K47" t="n">
-        <v>1.389208282187679</v>
+        <v>2.015697890329344</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.375606105248252</v>
+        <v>-0.008073497680032019</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3416,16 +3416,16 @@
         <v>7</v>
       </c>
       <c r="P47" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q47" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R47" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S47" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
@@ -3433,37 +3433,37 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>20.23901607332828</v>
+        <v>35.02574085590502</v>
       </c>
       <c r="C48" t="n">
-        <v>76.9713701697743</v>
+        <v>237.140025858692</v>
       </c>
       <c r="D48" t="n">
-        <v>8.84861736249433e-07</v>
+        <v>8.648722850454992e-05</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0009821525526552523</v>
+        <v>0.002815543035271177</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2850565644130745</v>
+        <v>0.3304315175085379</v>
       </c>
       <c r="J48" t="n">
-        <v>0.3392945377221641</v>
+        <v>0.8103687019043396</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9065532389502126</v>
+        <v>3.87514406871243</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.4656030972234952</v>
+        <v>-0.7611753020618672</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3479,54 +3479,54 @@
         <v>7</v>
       </c>
       <c r="P48" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q48" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R48" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S48" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B49" t="n">
-        <v>71.94243948072568</v>
+        <v>22.46658516614055</v>
       </c>
       <c r="C49" t="n">
-        <v>110.9329183068499</v>
+        <v>117.7442186561669</v>
       </c>
       <c r="D49" t="n">
-        <v>5.578489407768682e-07</v>
+        <v>8.713374718041741e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001209408535701709</v>
+        <v>0.0008715211921940439</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.013273795503179</v>
+        <v>0.004126288725770372</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2728469765257567</v>
+        <v>0.4525069901352979</v>
       </c>
       <c r="K49" t="n">
-        <v>1.534016375621062</v>
+        <v>1.056238415894975</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3968139318107015</v>
+        <v>-0.760686179951252</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3542,54 +3542,54 @@
         <v>7</v>
       </c>
       <c r="P49" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q49" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R49" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S49" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B50" t="n">
-        <v>57.59041282948706</v>
+        <v>37.24091202517299</v>
       </c>
       <c r="C50" t="n">
-        <v>95.88193667901314</v>
+        <v>166.3141694581101</v>
       </c>
       <c r="D50" t="n">
-        <v>1.330804376657815e-07</v>
+        <v>2.278410761294909e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0002469923650062344</v>
+        <v>0.001190715829033637</v>
       </c>
       <c r="F50" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.8111325750631981</v>
+        <v>-0.273754964709596</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2408259719966486</v>
+        <v>0.6591992495763411</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.3298591568371746</v>
+        <v>1.574022891612837</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.237682408318613</v>
+        <v>-1.122802022111506</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3605,16 +3605,16 @@
         <v>7</v>
       </c>
       <c r="P50" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q50" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R50" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S50" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
@@ -3622,37 +3622,37 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>15.05724432246678</v>
+        <v>171.3641936967909</v>
       </c>
       <c r="C51" t="n">
-        <v>53.19991776802337</v>
+        <v>313.1219837646619</v>
       </c>
       <c r="D51" t="n">
-        <v>1.777579151988241e-07</v>
+        <v>2.511674297317465e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0001186660296323696</v>
+        <v>0.0009245703092909747</v>
       </c>
       <c r="F51" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2120738636967153</v>
+        <v>1.616643336762178</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2780922573915769</v>
+        <v>0.6576393620369249</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6419269643181864</v>
+        <v>2.847932490221055</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.3946294808654796</v>
+        <v>0.162966428422557</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3668,16 +3668,16 @@
         <v>7</v>
       </c>
       <c r="P51" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q51" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R51" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S51" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
@@ -3685,37 +3685,37 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>57.92067798311968</v>
+        <v>37.74285174311906</v>
       </c>
       <c r="C52" t="n">
-        <v>88.00234897665953</v>
+        <v>112.3334286056179</v>
       </c>
       <c r="D52" t="n">
-        <v>1.881134430016931e-06</v>
+        <v>3.006273172954593e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0003394305618443185</v>
+        <v>0.001404143623839009</v>
       </c>
       <c r="F52" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.8157841969453474</v>
+        <v>-0.3560646390860289</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2255890489556631</v>
+        <v>0.3452294366652097</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.4271688531864741</v>
+        <v>0.4625911271709146</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.279185462052135</v>
+        <v>-0.9055446826513261</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3731,54 +3731,54 @@
         <v>7</v>
       </c>
       <c r="P52" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q52" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R52" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S52" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="B53" t="n">
-        <v>167.1104525747073</v>
+        <v>11.00807209532212</v>
       </c>
       <c r="C53" t="n">
-        <v>244.6165082296531</v>
+        <v>75.80166248208246</v>
       </c>
       <c r="D53" t="n">
-        <v>2.078747499913479e-06</v>
+        <v>1.359390657015841e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0007913509383948336</v>
+        <v>0.0004087870047827911</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2.353668346122638</v>
+        <v>-0.06236900241846864</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4447083412699792</v>
+        <v>0.2517662888930945</v>
       </c>
       <c r="K53" t="n">
-        <v>3.006897018448752</v>
+        <v>0.4442506487609549</v>
       </c>
       <c r="L53" t="n">
-        <v>1.477951443335605</v>
+        <v>-0.6703102245328096</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3794,16 +3794,16 @@
         <v>7</v>
       </c>
       <c r="P53" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q53" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R53" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S53" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
@@ -3811,37 +3811,37 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>67.10134392269893</v>
+        <v>63.76524026249957</v>
       </c>
       <c r="C54" t="n">
-        <v>87.38160282436752</v>
+        <v>137.2977615936546</v>
       </c>
       <c r="D54" t="n">
-        <v>5.265840615398615e-07</v>
+        <v>2.473336426113606e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0002117674907919746</v>
+        <v>0.0002970524570800875</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>-0.9450893510239288</v>
+        <v>-0.6015588704009394</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1657622612357718</v>
+        <v>0.2788340838804005</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.5773884304663375</v>
+        <v>-0.06476044123587965</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.183787145854957</v>
+        <v>-1.082554339907752</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3857,16 +3857,16 @@
         <v>7</v>
       </c>
       <c r="P54" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q54" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R54" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S54" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
@@ -3874,37 +3874,37 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>8.622963538910589</v>
+        <v>39.93564926719721</v>
       </c>
       <c r="C55" t="n">
-        <v>30.34267854983194</v>
+        <v>184.5567886002625</v>
       </c>
       <c r="D55" t="n">
-        <v>1.386771740822273e-07</v>
+        <v>1.28936830309938e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0001402887244941725</v>
+        <v>0.0004257848685614541</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.1214501906888815</v>
+        <v>0.3767514081811057</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1471787838639773</v>
+        <v>0.6218092248067268</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1139491616694226</v>
+        <v>1.634567182302069</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.4330081743140998</v>
+        <v>-0.6484919210164772</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3920,16 +3920,16 @@
         <v>7</v>
       </c>
       <c r="P55" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q55" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R55" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S55" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
@@ -3937,37 +3937,37 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>60.66718985596764</v>
+        <v>92.51661306797412</v>
       </c>
       <c r="C56" t="n">
-        <v>84.33352118069971</v>
+        <v>278.0597761620153</v>
       </c>
       <c r="D56" t="n">
-        <v>1.365733745626891e-07</v>
+        <v>4.956601187815462e-07</v>
       </c>
       <c r="E56" t="n">
-        <v>5.985161381847316e-05</v>
+        <v>0.000244208476927442</v>
       </c>
       <c r="F56" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.8544674627601074</v>
+        <v>0.8727982364903221</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1827925268337292</v>
+        <v>0.9750145744136509</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.4434241832162973</v>
+        <v>2.810143002213474</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.156134824020182</v>
+        <v>-0.5176935923687842</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3983,16 +3983,16 @@
         <v>7</v>
       </c>
       <c r="P56" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q56" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R56" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S56" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
@@ -4000,37 +4000,37 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>44.68805032173055</v>
+        <v>52.98430163590439</v>
       </c>
       <c r="C57" t="n">
-        <v>89.86259608993466</v>
+        <v>130.0992793993142</v>
       </c>
       <c r="D57" t="n">
-        <v>1.924954473907206e-07</v>
+        <v>8.13236556620939e-07</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000410366739592517</v>
+        <v>0.0003464196573574471</v>
       </c>
       <c r="F57" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.6294091594609939</v>
+        <v>-0.499851902225513</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3021858653139055</v>
+        <v>0.2566883094288201</v>
       </c>
       <c r="K57" t="n">
-        <v>0.03512052444641819</v>
+        <v>0.1494372290856267</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.07661830009276</v>
+        <v>-1.108368487515247</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4046,54 +4046,54 @@
         <v>7</v>
       </c>
       <c r="P57" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q57" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R57" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S57" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1408450704225352</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>5.406390026984798</v>
+        <v>72.21815754021191</v>
       </c>
       <c r="C58" t="n">
-        <v>27.59523486518781</v>
+        <v>236.1463772299043</v>
       </c>
       <c r="D58" t="n">
-        <v>5.390208016616071e-07</v>
+        <v>1.700662792875911e-07</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0001393913726369662</v>
+        <v>0.0001924183756250785</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01137734442339712</v>
+        <v>0.6813033730208669</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1966723974929696</v>
+        <v>0.7896262722657879</v>
       </c>
       <c r="K58" t="n">
-        <v>0.3513739069918312</v>
+        <v>2.157073793328142</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.4754568505937011</v>
+        <v>-0.9331027394089518</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -4109,54 +4109,54 @@
         <v>7</v>
       </c>
       <c r="P58" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q58" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R58" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S58" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>0.09433962264150943</v>
       </c>
       <c r="B59" t="n">
-        <v>53.4022449130521</v>
+        <v>20.69359918692067</v>
       </c>
       <c r="C59" t="n">
-        <v>105.4446017915994</v>
+        <v>101.3347373219381</v>
       </c>
       <c r="D59" t="n">
-        <v>9.0381054081899e-07</v>
+        <v>3.670453274327883e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0003177640314383984</v>
+        <v>0.0009189317451472517</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.7521442945500296</v>
+        <v>-0.07604061598867838</v>
       </c>
       <c r="J59" t="n">
-        <v>0.304830350219586</v>
+        <v>0.3844664242570242</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1531939419944717</v>
+        <v>0.6945814802986989</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.186684164323897</v>
+        <v>-1.002838432453141</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -4172,16 +4172,16 @@
         <v>7</v>
       </c>
       <c r="P59" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q59" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R59" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S59" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
@@ -4189,37 +4189,37 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>47.648010689765</v>
+        <v>55.71143654914404</v>
       </c>
       <c r="C60" t="n">
-        <v>66.74562393884125</v>
+        <v>124.9399634615136</v>
       </c>
       <c r="D60" t="n">
-        <v>7.385619606043745e-07</v>
+        <v>1.037965553325267e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0002604200650133191</v>
+        <v>0.0005127137043284842</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.6710987421093664</v>
+        <v>-0.5255795900862645</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1196583088082278</v>
+        <v>0.2595778182171607</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.4821321701565062</v>
+        <v>0.1370347605060556</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.91735586244719</v>
+        <v>-1.00692504224511</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4235,16 +4235,16 @@
         <v>7</v>
       </c>
       <c r="P60" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q60" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R60" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S60" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
@@ -4252,37 +4252,37 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>36.96563397994652</v>
+        <v>60.45808906794567</v>
       </c>
       <c r="C61" t="n">
-        <v>90.35278605777643</v>
+        <v>124.6645700613594</v>
       </c>
       <c r="D61" t="n">
-        <v>3.999723694066985e-07</v>
+        <v>3.022581226927244e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0002998974637742461</v>
+        <v>0.0007365971759964629</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.5206427321119226</v>
+        <v>-0.570359330829676</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3485287666797973</v>
+        <v>0.2172506860481543</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0711288716278682</v>
+        <v>0.1997832243647676</v>
       </c>
       <c r="L61" t="n">
-        <v>-1.014346622564392</v>
+        <v>-0.9593957191519634</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -4298,16 +4298,16 @@
         <v>7</v>
       </c>
       <c r="P61" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="Q61" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="R61" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S61" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
